--- a/results/MVSE/acm/MVSE_acm<l10>AllRes_89.99.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l10>AllRes_89.99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,7 +754,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -762,14 +766,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -789,20 +793,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="O5" t="n">
         <v>89.75</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-00_13_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_14_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -811,7 +815,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -823,11 +827,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -835,14 +835,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -862,20 +862,20 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="O6" t="n">
         <v>89.75</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_14_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-00_13_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -1614,7 +1614,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1626,11 +1626,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1645,7 +1641,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1661,33 +1657,33 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="O17" t="n">
-        <v>88.01000000000001</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.05</v>
+        <v>0.41</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_55_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-16_16_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1699,11 +1695,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1711,14 +1703,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1733,28 +1725,243 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-16_48_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O19" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_55_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O20" t="n">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_24_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.3</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O21" t="n">
         <v>82.7</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P21" t="n">
         <v>0.29</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q21" t="n">
         <v>10.04</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_54_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S21" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/acm/MVSE_acm<l10>AllRes_89.99.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l10>AllRes_89.99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1553,11 +1553,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1572,7 +1568,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1592,20 +1588,20 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="O16" t="n">
-        <v>88.40000000000001</v>
+        <v>88.45</v>
       </c>
       <c r="P16" t="n">
         <v>0.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.87</v>
+        <v>0.26</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_36_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-08_26_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1614,7 +1610,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1626,7 +1622,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1634,14 +1634,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1656,34 +1656,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="O17" t="n">
-        <v>88.18000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="P17" t="n">
         <v>0.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.41</v>
+        <v>0.87</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-16_16_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_36_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1732,27 +1732,27 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="O18" t="n">
-        <v>88.04000000000001</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P18" t="n">
         <v>0.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-16_48_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-16_16_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1764,11 +1764,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1783,7 +1779,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1799,33 +1795,33 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="O19" t="n">
-        <v>88.01000000000001</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.05</v>
+        <v>0.16</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_55_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-16_48_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1837,7 +1833,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1852,7 +1852,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1874,27 +1874,27 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O20" t="n">
-        <v>87.73999999999999</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.13</v>
+        <v>1.05</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_24_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_55_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1906,11 +1906,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1918,14 +1914,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1940,28 +1936,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O21" t="n">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_24_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.3</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>82.7</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>0.29</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>10.04</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_54_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>4096</v>
       </c>
     </row>
